--- a/Performance Stats.xlsx
+++ b/Performance Stats.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessica's Desktop\GitHub\Final_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeshi\Documents\GitHub\Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{163ED940-85F6-40E3-AD59-ED383C6577A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C0F059-CA37-4BCC-A8C5-8F3F564C8BB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="1700" windowWidth="28500" windowHeight="18360" xr2:uid="{D9EFF97F-DDC8-4AD8-8EC3-5048B04BE72B}"/>
+    <workbookView xWindow="39540" yWindow="1140" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{D9EFF97F-DDC8-4AD8-8EC3-5048B04BE72B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$D$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="116">
   <si>
     <t>[(0.15683501587590803, 'high low span'),</t>
   </si>
@@ -356,6 +360,30 @@
   </si>
   <si>
     <t>Reduced Parameters</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Decision Tree/To Buy Data</t>
+  </si>
+  <si>
+    <t>Decision Tree/Up Down Data</t>
+  </si>
+  <si>
+    <t>SVM/To Buy Data</t>
+  </si>
+  <si>
+    <t>SVM/Up Down Data</t>
+  </si>
+  <si>
+    <t>Combo</t>
   </si>
 </sst>
 </file>
@@ -721,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582A7B18-6029-4C3B-A95F-ADEE1575176C}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1287,74 +1315,113 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="J33" t="s">
+        <v>108</v>
+      </c>
+      <c r="K33" t="s">
+        <v>109</v>
+      </c>
+      <c r="L33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="I34" t="s">
+        <v>111</v>
+      </c>
+      <c r="J34">
+        <v>81.3</v>
+      </c>
+      <c r="K34">
+        <v>35</v>
+      </c>
+      <c r="L34">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="I35" t="s">
+        <v>112</v>
+      </c>
+      <c r="J35">
+        <v>85</v>
+      </c>
+      <c r="K35">
+        <v>85</v>
+      </c>
+      <c r="L35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="I36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="I37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>78</v>
       </c>
@@ -1388,7 +1455,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1721,6 +1788,74 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D23" xr:uid="{0405E791-C0D3-41BC-9D87-CB2B92269C2A}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5A3CF9-4A1B-4070-A2DC-375B7C7036E0}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2">
+        <v>81.3</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3">
+        <v>85</v>
+      </c>
+      <c r="C3">
+        <v>85</v>
+      </c>
+      <c r="D3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>